--- a/biology/Histoire de la zoologie et de la botanique/Julien_Fraipont/Julien_Fraipont.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julien_Fraipont/Julien_Fraipont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien Fraipont , né à Liège le 17 août 1857 et mort dans la même ville le 22 mars 1910, est un zoologue, paléontologue et anthropologue belge.
 Il a fouillé de nombreuses grottes, dont la grotte Lyell à Engihoul, dont il extrait des ossements d’animaux et des haches en silex, et celle de Spy où il découvre, avec l’archéologue Marcel De Puydt et le géologue Max Lohest trois squelettes néandertaliens.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études secondaires, tout en travaillant dans la banque de son père, il suit les cours de zoologie dispensés à l’université de Liège par Édouard Van Beneden dont il va devenir l’un des disciples, puis passe le doctorat en sciences naturelles.
 Il est chargé du cours de paléontologie en 1884, de géographie animale et de zoologie systématique en 1885. L’année suivante, il est nommé professeur extraordinaire ; il est promu à l’ordinariat en 1889 et devient recteur de l’université de Liège en 1909.
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie, Fraipont s’est particulièrement attaché à la systématique et à la morphologie de divers groupes animaux dont particulièrement les Archiannélides.
 En paléontologie, Fraipont s’est intéressé à partir de 1883-1884 aux invertébrés et aux poissons fossiles de Wallonie.
@@ -579,7 +595,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1888, médaille Broca décernée par la Société d'Anthropologie de Paris ;
 1890, élection comme membre étranger de l'Académie impériale allemande Césarine-LéopoIdine-Caroline de Halle ;
@@ -613,7 +631,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Nouvelle exploration des cavernes d’Engis » dans Annales de la Société géologique de Belgique, 1885 ;
 Julien Fraipont et Max Lohest, « La Race humaine de Neanderthal ou de Canstadt en Belgique » dans Archives de biologie, Ghent, 1887 ;
